--- a/TMC Manual Project.xlsx
+++ b/TMC Manual Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JEEVZ\Manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDEC6DD-9FB0-43B9-9090-303256EBBBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4F3137-4F96-4BE1-ABB6-D79FEA28FA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home Page" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="1465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="1466">
   <si>
     <t>Version No:</t>
   </si>
@@ -4147,13 +4147,7 @@
     <t>BUG REPORT THOMAS MOUNT</t>
   </si>
   <si>
-    <t>DEF_TMCHP_01</t>
-  </si>
-  <si>
     <t>Home Page</t>
-  </si>
-  <si>
-    <t>The Company Logo should be High Quality</t>
   </si>
   <si>
     <t>1. Open the Website
@@ -4168,18 +4162,6 @@
   </si>
   <si>
     <t>New</t>
-  </si>
-  <si>
-    <t>DEF_TMCHP_02</t>
-  </si>
-  <si>
-    <t>DEF_TMCHP_03</t>
-  </si>
-  <si>
-    <t>DEF_TMCHP_04</t>
-  </si>
-  <si>
-    <t>DEF_TMCHP_05</t>
   </si>
   <si>
     <t>1. Open the Website
@@ -4215,21 +4197,12 @@
     <t>Critical</t>
   </si>
   <si>
-    <t>DEF_TMCAU_01</t>
-  </si>
-  <si>
     <t>1. Open website
 2. Click on the About Us
 3. Click on submenu "Who we are"
 4. Click on  social media handle in each card are working</t>
   </si>
   <si>
-    <t>DEF_TMCAU_02</t>
-  </si>
-  <si>
-    <t>DEF_TMCAU_03</t>
-  </si>
-  <si>
     <t>1. Open website
 2. Click on the About Us
 3. Click on submenu "Who we are"
@@ -4257,21 +4230,6 @@
     <t>Career Page</t>
   </si>
   <si>
-    <t>DEF_TMCCP_01</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_02</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_03</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_04</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_05</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Open website
 2. Click on career
 3. Check for duplication of Jobs in service section
@@ -4296,94 +4254,7 @@
 </t>
   </si>
   <si>
-    <t>DEF_TMCCP_06</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_07</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_08</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_09</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_10</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_11</t>
-  </si>
-  <si>
     <t>Mandatory field is not marked with asterisk</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_12</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_13</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_14</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_15</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_16</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_17</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_18</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_19</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_20</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_21</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_22</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_23</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_24</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_25</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_26</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_27</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_28</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_29</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_30</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_31</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_32</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_33</t>
-  </si>
-  <si>
-    <t>DEF_TMCCP_34</t>
   </si>
   <si>
     <t>Verify that the full name field accepts spaces between names</t>
@@ -4732,81 +4603,6 @@
     <t>Contact US</t>
   </si>
   <si>
-    <t>DEF_TMCCU_01</t>
-  </si>
-  <si>
-    <t>DEF_TMCCU_02</t>
-  </si>
-  <si>
-    <t>DEF_TMCCU_03</t>
-  </si>
-  <si>
-    <t>DEF_TMCCU_04</t>
-  </si>
-  <si>
-    <t>DEF_TMCCU_05</t>
-  </si>
-  <si>
-    <t>DEF_TMCCU_06</t>
-  </si>
-  <si>
-    <t>DEF_TMCCU_07</t>
-  </si>
-  <si>
-    <t>DEF_TMCCU_08</t>
-  </si>
-  <si>
-    <t>DEF_TMCCU_09</t>
-  </si>
-  <si>
-    <t>DEF_TMCCU_10</t>
-  </si>
-  <si>
-    <t>DEF_TMCCU_11</t>
-  </si>
-  <si>
-    <t>DEF_TMCCU_12</t>
-  </si>
-  <si>
-    <t>DEF_TMCCU_13</t>
-  </si>
-  <si>
-    <t>DEF_TMCCU_14</t>
-  </si>
-  <si>
-    <t>DEF_TMCCU_15</t>
-  </si>
-  <si>
-    <t>DEF_TMCCU_16</t>
-  </si>
-  <si>
-    <t>DEF_TMCCU_17</t>
-  </si>
-  <si>
-    <t>DEF_TMCCU_18</t>
-  </si>
-  <si>
-    <t>DEF_TMCCU_19</t>
-  </si>
-  <si>
-    <t>DEF_TMCCU_20</t>
-  </si>
-  <si>
-    <t>DEF_TMCCU_21</t>
-  </si>
-  <si>
-    <t>DEF_TMCCU_22</t>
-  </si>
-  <si>
-    <t>DEF_TMCCU_23</t>
-  </si>
-  <si>
-    <t>DEF_TMCCU_24</t>
-  </si>
-  <si>
-    <t>DEF_TMCCU_25</t>
-  </si>
-  <si>
     <t>1. Open Website.
 2. Click on career
 3. Click on Job title link
@@ -5293,9 +5089,6 @@
     <t>About Us</t>
   </si>
   <si>
-    <t>DEF_TMCOP_01</t>
-  </si>
-  <si>
     <t>Contact Us Page</t>
   </si>
   <si>
@@ -5324,13 +5117,223 @@
   </si>
   <si>
     <t>TMC_CU_68</t>
+  </si>
+  <si>
+    <t>Click Here</t>
+  </si>
+  <si>
+    <t>The Company Logo should be High Quality even when page is zoomed</t>
+  </si>
+  <si>
+    <t>DEF_TMC_01</t>
+  </si>
+  <si>
+    <t>DEF_TMC_02</t>
+  </si>
+  <si>
+    <t>DEF_TMC_03</t>
+  </si>
+  <si>
+    <t>DEF_TMC_04</t>
+  </si>
+  <si>
+    <t>DEF_TMC_05</t>
+  </si>
+  <si>
+    <t>DEF_TMC_06</t>
+  </si>
+  <si>
+    <t>DEF_TMC_07</t>
+  </si>
+  <si>
+    <t>DEF_TMC_08</t>
+  </si>
+  <si>
+    <t>DEF_TMC_09</t>
+  </si>
+  <si>
+    <t>DEF_TMC_10</t>
+  </si>
+  <si>
+    <t>DEF_TMC_11</t>
+  </si>
+  <si>
+    <t>DEF_TMC_12</t>
+  </si>
+  <si>
+    <t>DEF_TMC_13</t>
+  </si>
+  <si>
+    <t>DEF_TMC_14</t>
+  </si>
+  <si>
+    <t>DEF_TMC_15</t>
+  </si>
+  <si>
+    <t>DEF_TMC_16</t>
+  </si>
+  <si>
+    <t>DEF_TMC_17</t>
+  </si>
+  <si>
+    <t>DEF_TMC_18</t>
+  </si>
+  <si>
+    <t>DEF_TMC_19</t>
+  </si>
+  <si>
+    <t>DEF_TMC_20</t>
+  </si>
+  <si>
+    <t>DEF_TMC_21</t>
+  </si>
+  <si>
+    <t>DEF_TMC_22</t>
+  </si>
+  <si>
+    <t>DEF_TMC_23</t>
+  </si>
+  <si>
+    <t>DEF_TMC_24</t>
+  </si>
+  <si>
+    <t>DEF_TMC_25</t>
+  </si>
+  <si>
+    <t>DEF_TMC_26</t>
+  </si>
+  <si>
+    <t>DEF_TMC_27</t>
+  </si>
+  <si>
+    <t>DEF_TMC_28</t>
+  </si>
+  <si>
+    <t>DEF_TMC_29</t>
+  </si>
+  <si>
+    <t>DEF_TMC_30</t>
+  </si>
+  <si>
+    <t>DEF_TMC_31</t>
+  </si>
+  <si>
+    <t>DEF_TMC_32</t>
+  </si>
+  <si>
+    <t>DEF_TMC_33</t>
+  </si>
+  <si>
+    <t>DEF_TMC_34</t>
+  </si>
+  <si>
+    <t>DEF_TMC_35</t>
+  </si>
+  <si>
+    <t>DEF_TMC_36</t>
+  </si>
+  <si>
+    <t>DEF_TMC_37</t>
+  </si>
+  <si>
+    <t>DEF_TMC_38</t>
+  </si>
+  <si>
+    <t>DEF_TMC_39</t>
+  </si>
+  <si>
+    <t>DEF_TMC_40</t>
+  </si>
+  <si>
+    <t>DEF_TMC_41</t>
+  </si>
+  <si>
+    <t>DEF_TMC_42</t>
+  </si>
+  <si>
+    <t>DEF_TMC_43</t>
+  </si>
+  <si>
+    <t>DEF_TMC_44</t>
+  </si>
+  <si>
+    <t>DEF_TMC_45</t>
+  </si>
+  <si>
+    <t>DEF_TMC_46</t>
+  </si>
+  <si>
+    <t>DEF_TMC_47</t>
+  </si>
+  <si>
+    <t>DEF_TMC_48</t>
+  </si>
+  <si>
+    <t>DEF_TMC_49</t>
+  </si>
+  <si>
+    <t>DEF_TMC_50</t>
+  </si>
+  <si>
+    <t>DEF_TMC_51</t>
+  </si>
+  <si>
+    <t>DEF_TMC_52</t>
+  </si>
+  <si>
+    <t>DEF_TMC_53</t>
+  </si>
+  <si>
+    <t>DEF_TMC_54</t>
+  </si>
+  <si>
+    <t>DEF_TMC_55</t>
+  </si>
+  <si>
+    <t>DEF_TMC_56</t>
+  </si>
+  <si>
+    <t>DEF_TMC_57</t>
+  </si>
+  <si>
+    <t>DEF_TMC_58</t>
+  </si>
+  <si>
+    <t>DEF_TMC_59</t>
+  </si>
+  <si>
+    <t>DEF_TMC_60</t>
+  </si>
+  <si>
+    <t>DEF_TMC_61</t>
+  </si>
+  <si>
+    <t>DEF_TMC_62</t>
+  </si>
+  <si>
+    <t>DEF_TMC_63</t>
+  </si>
+  <si>
+    <t>DEF_TMC_64</t>
+  </si>
+  <si>
+    <t>DEF_TMC_65</t>
+  </si>
+  <si>
+    <t>DEF_TMC_66</t>
+  </si>
+  <si>
+    <t>DEF_TMC_67</t>
+  </si>
+  <si>
+    <t>DEF_TMC_68</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5393,6 +5396,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5479,10 +5490,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5541,6 +5553,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5553,6 +5580,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5562,23 +5598,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5589,29 +5610,85 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5746,125 +5823,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6787,11 +6745,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9193B7C1-3CA5-46B3-8092-2E8A37DA492E}" name="Table1" displayName="Table1" ref="B2:C7" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9193B7C1-3CA5-46B3-8092-2E8A37DA492E}" name="Table1" displayName="Table1" ref="B2:C7" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="B2:C7" xr:uid="{9193B7C1-3CA5-46B3-8092-2E8A37DA492E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4477D0BA-D0B6-4EC7-AB73-9F28E1F8F8DC}" name="Module Name" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{4B3F45FC-C387-4162-A058-7D59A3FAB9FF}" name="Defects Distribution" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{4477D0BA-D0B6-4EC7-AB73-9F28E1F8F8DC}" name="Module Name" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{4B3F45FC-C387-4162-A058-7D59A3FAB9FF}" name="Defects Distribution" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6801,9 +6759,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{137370DF-8541-4D42-9ED6-DAF06A523D6E}" name="Table2" displayName="Table2" ref="B2:E7" totalsRowShown="0">
   <autoFilter ref="B2:E7" xr:uid="{137370DF-8541-4D42-9ED6-DAF06A523D6E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9DBB1011-8FB0-40F9-9C6E-D8285E82653C}" name="Module Name" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{9DBB1011-8FB0-40F9-9C6E-D8285E82653C}" name="Module Name" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{DA7066B9-9112-4423-9FF1-C4B20BB72F06}" name="Test Case Passed"/>
-    <tableColumn id="3" xr3:uid="{67821271-B5C8-4166-9146-EAF4C997D7A9}" name="Test Case failed" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{67821271-B5C8-4166-9146-EAF4C997D7A9}" name="Test Case failed" dataDxfId="13"/>
     <tableColumn id="4" xr3:uid="{DD464CC4-4145-4F2C-B0A3-A3114EFCCB4B}" name="Total Test Case"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7092,35 +7050,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="29" t="s">
         <v>1095</v>
       </c>
@@ -7129,15 +7087,15 @@
       <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -7163,15 +7121,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -8792,10 +8750,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8848,15 +8806,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -9342,15 +9300,15 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
@@ -9695,10 +9653,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9750,15 +9708,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -10244,15 +10202,15 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
@@ -10660,10 +10618,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10715,15 +10673,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="33" t="s">
         <v>388</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -11849,7 +11807,7 @@
         <v>532</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>1243</v>
+        <v>1200</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>976</v>
@@ -11872,7 +11830,7 @@
         <v>533</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>1244</v>
+        <v>1201</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>977</v>
@@ -11895,7 +11853,7 @@
         <v>534</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>1245</v>
+        <v>1202</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>978</v>
@@ -12310,7 +12268,7 @@
       <c r="C76" s="13" t="s">
         <v>991</v>
       </c>
-      <c r="D76" s="27" t="s">
+      <c r="D76" s="20" t="s">
         <v>752</v>
       </c>
       <c r="E76" s="13" t="s">
@@ -12443,7 +12401,7 @@
         <v>1134</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>1288</v>
+        <v>1245</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>33</v>
@@ -12885,17 +12843,17 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="G1:G95 G103:G1048576">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G96:G102">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12947,15 +12905,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -13109,17 +13067,17 @@
         <v>648</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1346</v>
+        <v>1278</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>1347</v>
+        <v>1279</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="9" t="s">
-        <v>1348</v>
+        <v>1280</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>1349</v>
+        <v>1281</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>32</v>
@@ -13238,7 +13196,7 @@
         <v>715</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1350</v>
+        <v>1282</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="9" t="s">
@@ -13259,7 +13217,7 @@
         <v>468</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1351</v>
+        <v>1283</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>717</v>
@@ -13282,7 +13240,7 @@
         <v>469</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1352</v>
+        <v>1284</v>
       </c>
       <c r="D18" s="10">
         <v>1234567890</v>
@@ -13305,7 +13263,7 @@
         <v>470</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1353</v>
+        <v>1285</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>721</v>
@@ -13328,7 +13286,7 @@
         <v>471</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1354</v>
+        <v>1286</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="9" t="s">
@@ -13349,7 +13307,7 @@
         <v>474</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1355</v>
+        <v>1287</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>723</v>
@@ -13372,7 +13330,7 @@
         <v>476</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1356</v>
+        <v>1288</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>724</v>
@@ -13395,7 +13353,7 @@
         <v>475</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1357</v>
+        <v>1289</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>724</v>
@@ -13418,7 +13376,7 @@
         <v>472</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1358</v>
+        <v>1290</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>725</v>
@@ -13441,7 +13399,7 @@
         <v>473</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1359</v>
+        <v>1291</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>727</v>
@@ -13464,7 +13422,7 @@
         <v>477</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1360</v>
+        <v>1292</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>729</v>
@@ -13487,7 +13445,7 @@
         <v>478</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1361</v>
+        <v>1293</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>730</v>
@@ -13510,7 +13468,7 @@
         <v>731</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1362</v>
+        <v>1294</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>744</v>
@@ -13533,7 +13491,7 @@
         <v>480</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1363</v>
+        <v>1295</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>734</v>
@@ -13556,7 +13514,7 @@
         <v>482</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>1364</v>
+        <v>1296</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>735</v>
@@ -13579,7 +13537,7 @@
         <v>483</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>1365</v>
+        <v>1297</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>736</v>
@@ -13602,7 +13560,7 @@
         <v>484</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1366</v>
+        <v>1298</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>737</v>
@@ -13625,7 +13583,7 @@
         <v>740</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>1367</v>
+        <v>1299</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>738</v>
@@ -13648,7 +13606,7 @@
         <v>741</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>1368</v>
+        <v>1300</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>742</v>
@@ -13671,7 +13629,7 @@
         <v>496</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>1369</v>
+        <v>1301</v>
       </c>
       <c r="D35" s="10">
         <v>9876543210</v>
@@ -13694,7 +13652,7 @@
         <v>497</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>1370</v>
+        <v>1302</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>746</v>
@@ -13717,7 +13675,7 @@
         <v>498</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>1371</v>
+        <v>1303</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>749</v>
@@ -13740,7 +13698,7 @@
         <v>750</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>1372</v>
+        <v>1304</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>751</v>
@@ -13763,9 +13721,9 @@
         <v>499</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D39" s="27" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D39" s="20" t="s">
         <v>752</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -13786,7 +13744,7 @@
         <v>757</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>1374</v>
+        <v>1306</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="9" t="s">
@@ -13807,7 +13765,7 @@
         <v>753</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>1375</v>
+        <v>1307</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="9" t="s">
@@ -13828,7 +13786,7 @@
         <v>1159</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>1376</v>
+        <v>1308</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>1067</v>
@@ -13851,7 +13809,7 @@
         <v>754</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>1377</v>
+        <v>1309</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="9" t="s">
@@ -13872,7 +13830,7 @@
         <v>763</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>1378</v>
+        <v>1310</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="9" t="s">
@@ -13893,7 +13851,7 @@
         <v>799</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>1379</v>
+        <v>1311</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="9" t="s">
@@ -13914,7 +13872,7 @@
         <v>800</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>1380</v>
+        <v>1312</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>1050</v>
@@ -13937,7 +13895,7 @@
         <v>801</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>1381</v>
+        <v>1313</v>
       </c>
       <c r="D47" s="10">
         <v>987654321</v>
@@ -13960,9 +13918,9 @@
         <v>802</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>1382</v>
-      </c>
-      <c r="D48" s="28" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>1055</v>
       </c>
       <c r="E48" s="9" t="s">
@@ -13983,7 +13941,7 @@
         <v>803</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>1383</v>
+        <v>1315</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>1058</v>
@@ -14006,7 +13964,7 @@
         <v>804</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>1384</v>
+        <v>1316</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>1062</v>
@@ -14029,7 +13987,7 @@
         <v>805</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>1385</v>
+        <v>1317</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>1064</v>
@@ -14354,7 +14312,7 @@
     </row>
     <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>1460</v>
+        <v>1391</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>352</v>
@@ -14375,7 +14333,7 @@
     </row>
     <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>1461</v>
+        <v>1392</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>353</v>
@@ -14396,7 +14354,7 @@
     </row>
     <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>1462</v>
+        <v>1393</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>354</v>
@@ -14417,7 +14375,7 @@
     </row>
     <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>1463</v>
+        <v>1394</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>355</v>
@@ -14438,7 +14396,7 @@
     </row>
     <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>1464</v>
+        <v>1395</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>357</v>
@@ -14462,67 +14420,29 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G2 G65 G71:G1048576 G40:G52 G6:G27">
+  <conditionalFormatting sqref="G1:G2 G6:G27 G40:G52 G65 G71:G1048576">
     <cfRule type="cellIs" priority="23" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G71:G1048576 G1:G2 G6:G65">
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+  <conditionalFormatting sqref="G1:G65">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+  <conditionalFormatting sqref="G66:G70">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66:G68">
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66:G68">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+  <conditionalFormatting sqref="G71:G1048576">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
       <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G69">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G69">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14533,8 +14453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8ED63F6-4DA7-4CD4-9750-DCA97DF65036}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14544,146 +14464,146 @@
     <col min="3" max="3" width="32.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="31.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>1174</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="36" t="s">
         <v>1161</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
         <v>1162</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="36" t="s">
         <v>1163</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37" t="s">
         <v>1164</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="35">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="38">
         <v>45078</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>1165</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37" t="s">
         <v>1166</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>1167</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37">
         <v>113</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="21" t="s">
         <v>1168</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="21" t="s">
         <v>1169</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="21" t="s">
         <v>1170</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="21" t="s">
         <v>1171</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="21" t="s">
         <v>1172</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="21" t="s">
         <v>1173</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>1175</v>
+        <v>1398</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>17</v>
@@ -14692,25 +14612,27 @@
         <v>921</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>1177</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>1179</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>1182</v>
+        <v>1399</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>22</v>
@@ -14722,22 +14644,24 @@
         <v>141</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>1186</v>
-      </c>
-      <c r="F10" s="9" t="s">
         <v>1180</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9" t="s">
-        <v>1181</v>
+      <c r="F10" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>1183</v>
+        <v>1400</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>27</v>
@@ -14749,22 +14673,22 @@
         <v>67</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>1190</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>1189</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9" t="s">
-        <v>1181</v>
+        <v>1184</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>1184</v>
+        <v>1401</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>97</v>
@@ -14776,22 +14700,24 @@
         <v>86</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>1191</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G12" s="9" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>1179</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>1185</v>
+        <v>1402</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>104</v>
@@ -14803,35 +14729,37 @@
         <v>129</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G13" s="9" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>1179</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9" t="s">
-        <v>1181</v>
-      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>1194</v>
+        <v>1403</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>181</v>
@@ -14843,22 +14771,24 @@
         <v>254</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G15" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>1179</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>1196</v>
+        <v>1404</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>183</v>
@@ -14870,62 +14800,64 @@
         <v>260</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G16" s="9" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>1179</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>1197</v>
+        <v>1405</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="13" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>298</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9" t="s">
-        <v>1181</v>
+        <v>1192</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
     </row>
     <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>1454</v>
+        <v>1406</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>360</v>
@@ -14937,35 +14869,35 @@
         <v>635</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>1202</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9" t="s">
-        <v>1181</v>
+        <v>1193</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
+      <c r="A20" s="35" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
     </row>
     <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>1204</v>
+        <v>1407</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>407</v>
@@ -14974,25 +14906,27 @@
         <v>887</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>1443</v>
+        <v>1375</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>1209</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G21" s="9" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I21" s="10" t="s">
         <v>1179</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>1205</v>
+        <v>1408</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>408</v>
@@ -15001,25 +14935,27 @@
         <v>889</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>1444</v>
+        <v>1376</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G22" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>1179</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>1206</v>
+        <v>1409</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>427</v>
@@ -15031,22 +14967,24 @@
         <v>899</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>1193</v>
-      </c>
-      <c r="G23" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I23" s="10" t="s">
         <v>1179</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>1207</v>
+        <v>1410</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>428</v>
@@ -15058,22 +14996,24 @@
         <v>899</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>1212</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>1193</v>
-      </c>
-      <c r="G24" s="9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I24" s="10" t="s">
         <v>1179</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>1208</v>
+        <v>1411</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>444</v>
@@ -15087,20 +15027,22 @@
       <c r="E25" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>1189</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9" t="s">
-        <v>1181</v>
+      <c r="F25" s="10" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>1213</v>
+        <v>1412</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>525</v>
@@ -15109,25 +15051,27 @@
         <v>966</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>968</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9" t="s">
-        <v>1181</v>
+      <c r="F26" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>1214</v>
+        <v>1413</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>526</v>
@@ -15141,1221 +15085,1263 @@
       <c r="E27" s="13" t="s">
         <v>971</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G27" s="9" t="s">
+      <c r="F27" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I27" s="10" t="s">
         <v>1179</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>1215</v>
+        <v>1414</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>529</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>1246</v>
+        <v>1203</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>1445</v>
+        <v>1377</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>1253</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9" t="s">
-        <v>1181</v>
+        <v>1210</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>1216</v>
+        <v>1415</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>530</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>1247</v>
+        <v>1204</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1446</v>
+        <v>1378</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>1255</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9" t="s">
-        <v>1181</v>
+        <v>1212</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>1217</v>
+        <v>1416</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>531</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>1252</v>
+        <v>1209</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>1447</v>
+        <v>1379</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9" t="s">
-        <v>1181</v>
+        <v>1211</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>1218</v>
+        <v>1417</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>533</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>1248</v>
+        <v>1205</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>1448</v>
+        <v>1380</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9" t="s">
-        <v>1181</v>
+        <v>1277</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>1220</v>
+        <v>1418</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>534</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>1249</v>
+        <v>1206</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>1449</v>
+        <v>1381</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>1256</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9" t="s">
-        <v>1181</v>
+        <v>1213</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>1221</v>
+        <v>1419</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>535</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>1250</v>
+        <v>1207</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>1450</v>
+        <v>1382</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>1257</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9" t="s">
-        <v>1181</v>
+        <v>1214</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>1222</v>
+        <v>1420</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>536</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>1251</v>
+        <v>1208</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>1451</v>
+        <v>1383</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>1344</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9" t="s">
-        <v>1181</v>
+        <v>1276</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>1223</v>
+        <v>1421</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>540</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>1258</v>
+        <v>1215</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>1264</v>
+        <v>1221</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>1270</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9" t="s">
-        <v>1181</v>
+        <v>1227</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>1224</v>
+        <v>1422</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>542</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>1259</v>
+        <v>1216</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>1265</v>
+        <v>1222</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>1272</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9" t="s">
-        <v>1181</v>
+        <v>1229</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>1225</v>
+        <v>1423</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>543</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>1260</v>
+        <v>1217</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>1266</v>
+        <v>1223</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>1271</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9" t="s">
-        <v>1181</v>
+        <v>1228</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>1226</v>
+        <v>1424</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>544</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>1261</v>
+        <v>1218</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>1267</v>
+        <v>1224</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>1274</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9" t="s">
-        <v>1181</v>
+        <v>1231</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>1227</v>
+        <v>1425</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>545</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>1262</v>
+        <v>1219</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>1268</v>
+        <v>1225</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>1273</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9" t="s">
-        <v>1181</v>
+        <v>1230</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>1228</v>
+        <v>1426</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>546</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>1263</v>
+        <v>1220</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>1269</v>
+        <v>1226</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9" t="s">
-        <v>1181</v>
+        <v>1232</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>1229</v>
+        <v>1427</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>549</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>1276</v>
+        <v>1233</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>1280</v>
+        <v>1237</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>1284</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9" t="s">
-        <v>1181</v>
+        <v>1241</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>1230</v>
+        <v>1428</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>550</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>1277</v>
+        <v>1234</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>1281</v>
+        <v>1238</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9" t="s">
-        <v>1181</v>
+        <v>1243</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>1231</v>
+        <v>1429</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>551</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>1278</v>
+        <v>1235</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>1282</v>
+        <v>1239</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>1285</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9" t="s">
-        <v>1181</v>
+        <v>1242</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>1232</v>
+        <v>1430</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>552</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>1279</v>
+        <v>1236</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>1283</v>
+        <v>1240</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>1287</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9" t="s">
-        <v>1181</v>
+        <v>1244</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>1233</v>
+        <v>1431</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>557</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>1296</v>
+        <v>1253</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>1289</v>
+        <v>1246</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>1300</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9" t="s">
-        <v>1181</v>
+        <v>1257</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>1234</v>
+        <v>1432</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>558</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>1295</v>
+        <v>1252</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>1290</v>
+        <v>1247</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>1299</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9" t="s">
-        <v>1181</v>
+        <v>1256</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>1235</v>
+        <v>1433</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>559</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>1294</v>
+        <v>1251</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>1291</v>
+        <v>1248</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>1298</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9" t="s">
-        <v>1181</v>
+        <v>1255</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>1236</v>
+        <v>1434</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>560</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>1293</v>
+        <v>1250</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>1292</v>
+        <v>1249</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>1297</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>1189</v>
-      </c>
-      <c r="G48" s="9" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I48" s="10" t="s">
         <v>1179</v>
-      </c>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>1237</v>
+        <v>1435</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>562</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>1301</v>
+        <v>1258</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>1302</v>
+        <v>1259</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>1303</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>1193</v>
-      </c>
-      <c r="G49" s="9" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I49" s="10" t="s">
         <v>1179</v>
-      </c>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>1238</v>
+        <v>1436</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>564</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>1304</v>
+        <v>1261</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>1305</v>
+        <v>1262</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>1306</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9" t="s">
-        <v>1181</v>
+        <v>1263</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>1239</v>
+        <v>1437</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>565</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>1307</v>
+        <v>1264</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>1308</v>
+        <v>1265</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>1312</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G51" s="9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10" t="s">
         <v>1179</v>
-      </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>1240</v>
+        <v>1438</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>569</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>1313</v>
+        <v>1270</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>1314</v>
+        <v>1271</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>1311</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9" t="s">
-        <v>1181</v>
+        <v>1268</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>1241</v>
+        <v>1439</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>570</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>1315</v>
+        <v>1272</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>1316</v>
+        <v>1273</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>1310</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F53" s="10" t="s">
         <v>1181</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>1242</v>
+        <v>1440</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>571</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>1317</v>
+        <v>1274</v>
       </c>
       <c r="D54" s="13" t="s">
         <v>835</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>1309</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G54" s="9" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10" t="s">
         <v>1179</v>
       </c>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9" t="s">
-        <v>1181</v>
-      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="37" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
+      <c r="A55" s="35" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
     </row>
     <row r="56" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>1319</v>
+        <v>1441</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>656</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>1409</v>
+        <v>1341</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>1416</v>
+        <v>1348</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>1386</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9" t="s">
-        <v>1181</v>
+        <v>1318</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>1320</v>
+        <v>1442</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>657</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>1410</v>
+        <v>1342</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>1417</v>
+        <v>1349</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>1387</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9" t="s">
-        <v>1181</v>
+        <v>1319</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>1321</v>
+        <v>1443</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>658</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>1411</v>
+        <v>1343</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>1418</v>
+        <v>1350</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>1389</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9" t="s">
-        <v>1181</v>
+        <v>1321</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>1322</v>
+        <v>1444</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>660</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>1412</v>
+        <v>1344</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>1419</v>
+        <v>1351</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>1388</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9" t="s">
-        <v>1181</v>
+        <v>1320</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>1323</v>
+        <v>1445</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>661</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>1413</v>
+        <v>1345</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>1420</v>
+        <v>1352</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>1390</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9" t="s">
-        <v>1181</v>
+        <v>1322</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>1324</v>
+        <v>1446</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>662</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>1414</v>
+        <v>1346</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>1421</v>
+        <v>1353</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9" t="s">
-        <v>1181</v>
+        <v>1323</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>1325</v>
+        <v>1447</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>663</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>1415</v>
+        <v>1347</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>1422</v>
+        <v>1354</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>1392</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9" t="s">
-        <v>1181</v>
+        <v>1324</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>1326</v>
+        <v>1448</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>666</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>1258</v>
+        <v>1215</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>1423</v>
+        <v>1355</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>1393</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9" t="s">
-        <v>1181</v>
+        <v>1325</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>1327</v>
+        <v>1449</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>668</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>1259</v>
+        <v>1216</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>1424</v>
+        <v>1356</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>1394</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G64" s="9" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10" t="s">
         <v>1179</v>
-      </c>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>1328</v>
+        <v>1450</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>669</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>1260</v>
+        <v>1217</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>1425</v>
+        <v>1357</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>1395</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G65" s="9" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10" t="s">
         <v>1179</v>
-      </c>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>1329</v>
+        <v>1451</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>670</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>1261</v>
+        <v>1218</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>1426</v>
+        <v>1358</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>1396</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G66" s="9" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10" t="s">
         <v>1179</v>
-      </c>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>1330</v>
+        <v>1452</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>671</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>1262</v>
+        <v>1219</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>1427</v>
+        <v>1359</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>1397</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G67" s="9" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10" t="s">
         <v>1179</v>
-      </c>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>1331</v>
+        <v>1453</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>672</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>1263</v>
+        <v>1220</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>1428</v>
+        <v>1360</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>1398</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G68" s="9" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10" t="s">
         <v>1179</v>
-      </c>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>1332</v>
+        <v>1454</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>674</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>1429</v>
+        <v>1361</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>1433</v>
+        <v>1365</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>1399</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G69" s="9" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10" t="s">
         <v>1179</v>
-      </c>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>1333</v>
+        <v>1455</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>675</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1430</v>
+        <v>1362</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>1434</v>
+        <v>1366</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>1400</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G70" s="9" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10" t="s">
         <v>1179</v>
-      </c>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>1334</v>
+        <v>1456</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>676</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1431</v>
+        <v>1363</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>1435</v>
+        <v>1367</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>1401</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G71" s="9" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10" t="s">
         <v>1179</v>
-      </c>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>1335</v>
+        <v>1457</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>677</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1432</v>
+        <v>1364</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>1436</v>
+        <v>1368</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>1402</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G72" s="9" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10" t="s">
         <v>1179</v>
-      </c>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>1336</v>
+        <v>1458</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>687</v>
@@ -16367,22 +16353,22 @@
         <v>1059</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>1403</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9" t="s">
-        <v>1181</v>
+        <v>1335</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>1337</v>
+        <v>1459</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>688</v>
@@ -16394,103 +16380,103 @@
         <v>1060</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>1437</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9" t="s">
-        <v>1181</v>
+        <v>1369</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>1338</v>
+        <v>1460</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>690</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>1438</v>
+        <v>1370</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>1439</v>
+        <v>1371</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>1404</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9" t="s">
-        <v>1181</v>
+        <v>1336</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>1339</v>
+        <v>1461</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>692</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>1301</v>
+        <v>1258</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>1302</v>
+        <v>1259</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>1405</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>1193</v>
-      </c>
-      <c r="G76" s="9" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10" t="s">
         <v>1179</v>
-      </c>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>1340</v>
+        <v>1462</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>694</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>1304</v>
+        <v>1261</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>1305</v>
+        <v>1262</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>1440</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9" t="s">
-        <v>1181</v>
+        <v>1372</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>1341</v>
+        <v>1463</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>698</v>
@@ -16499,25 +16485,25 @@
         <v>1138</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>1441</v>
+        <v>1373</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>1406</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F78" s="10" t="s">
         <v>1181</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>1342</v>
+        <v>1464</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>699</v>
@@ -16529,44 +16515,44 @@
         <v>1140</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>1407</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F79" s="10" t="s">
         <v>1181</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>1343</v>
+        <v>1465</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>703</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>1442</v>
+        <v>1374</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>1041</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>1408</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>1193</v>
-      </c>
-      <c r="G80" s="9" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10" t="s">
         <v>1179</v>
-      </c>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9" t="s">
-        <v>1181</v>
       </c>
     </row>
   </sheetData>
@@ -16589,6 +16575,41 @@
     <mergeCell ref="D4:I4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H9" r:id="rId1" xr:uid="{47D30D90-CBDF-4B56-86C9-3968BCCEC404}"/>
+    <hyperlink ref="H10" r:id="rId2" xr:uid="{6BF37412-7E63-439A-A55F-F763F8AB92E3}"/>
+    <hyperlink ref="H12" r:id="rId3" xr:uid="{B3B15190-C8CA-42DB-82C4-34911CF7540B}"/>
+    <hyperlink ref="H13" r:id="rId4" xr:uid="{53579DA9-E3E5-4717-A17C-3358A7F4E7EF}"/>
+    <hyperlink ref="H15" r:id="rId5" xr:uid="{7F4B6DB6-1A6E-4E5A-B045-E47407EC16B0}"/>
+    <hyperlink ref="H16" r:id="rId6" xr:uid="{1A5E6E01-FC7F-4BE2-A26F-C574394DE992}"/>
+    <hyperlink ref="H21" r:id="rId7" xr:uid="{0ED1506E-C9CC-449C-8E27-F5C9E944323E}"/>
+    <hyperlink ref="H22" r:id="rId8" xr:uid="{CEFBD458-6D5D-417E-860D-6073C21FD8A8}"/>
+    <hyperlink ref="H23" r:id="rId9" xr:uid="{A4C48C54-2D0A-43EB-A88D-431FD962C542}"/>
+    <hyperlink ref="H24" r:id="rId10" xr:uid="{A848D4AD-F769-44E0-96E3-F261F14171A4}"/>
+    <hyperlink ref="H25" r:id="rId11" xr:uid="{30E17FDF-1DB6-488A-855E-FF43FE5D183E}"/>
+    <hyperlink ref="H26" r:id="rId12" xr:uid="{EDF71F97-DE8E-4801-95D4-874A0B1496DD}"/>
+    <hyperlink ref="H27" r:id="rId13" xr:uid="{C7DDF2BB-2AD3-40C7-B1DA-9CDFB921CF8D}"/>
+    <hyperlink ref="H28" r:id="rId14" xr:uid="{A678724D-4F01-4218-B010-2C11303D88B3}"/>
+    <hyperlink ref="H29" r:id="rId15" xr:uid="{69B24CF3-3F25-49D8-B483-842F32C75845}"/>
+    <hyperlink ref="H30" r:id="rId16" xr:uid="{A56C6AB5-19E1-4E9D-BAAB-BCDB5C9CCAB7}"/>
+    <hyperlink ref="H31" r:id="rId17" xr:uid="{251958B2-0B66-4E5A-A73D-AA478F6AFE8F}"/>
+    <hyperlink ref="H32" r:id="rId18" xr:uid="{BBC31B3A-CC8C-4A57-99A5-AFDD89EE3792}"/>
+    <hyperlink ref="H33" r:id="rId19" xr:uid="{A0101F3D-F6D4-4EA0-8A3D-4202119BB7DE}"/>
+    <hyperlink ref="H34" r:id="rId20" xr:uid="{A9F70460-EAAD-40B3-807D-8AA6C84652FE}"/>
+    <hyperlink ref="H35" r:id="rId21" xr:uid="{71B332BF-19D7-4ECE-83FC-439CB4F37204}"/>
+    <hyperlink ref="H36" r:id="rId22" xr:uid="{FD07C671-A886-4FDC-A4DC-A6C79064F5A1}"/>
+    <hyperlink ref="H37" r:id="rId23" xr:uid="{E81E8E92-3A03-4DCE-827C-6F727008A842}"/>
+    <hyperlink ref="H38" r:id="rId24" xr:uid="{7DAF59D1-1CBF-4401-86D1-062F56F52C5B}"/>
+    <hyperlink ref="H40" r:id="rId25" xr:uid="{EA736B6A-E71D-4126-80CD-DA2E6102B8E8}"/>
+    <hyperlink ref="H41" r:id="rId26" xr:uid="{44445507-1776-460F-B3C4-C16946632C57}"/>
+    <hyperlink ref="H42" r:id="rId27" xr:uid="{EBDE3D66-64ED-4331-9A27-50D679008C4B}"/>
+    <hyperlink ref="H43" r:id="rId28" xr:uid="{BE0628F6-F0E4-4C83-B5DD-6300602BDB28}"/>
+    <hyperlink ref="H44" r:id="rId29" xr:uid="{565D755A-BA87-4A8D-9A73-5AD944F62F2D}"/>
+    <hyperlink ref="H45" r:id="rId30" xr:uid="{31A7862C-AFC4-4569-988E-DBD5EA22B3BA}"/>
+    <hyperlink ref="H48" r:id="rId31" xr:uid="{D72F33F0-BF6F-4CC2-AE4B-FE0736820D91}"/>
+    <hyperlink ref="H49" r:id="rId32" xr:uid="{4F3CC247-B9B4-47FB-BA0F-D15B022F7445}"/>
+    <hyperlink ref="H50" r:id="rId33" xr:uid="{D19E94AD-C50E-45BF-8673-3879D07BF7FE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16598,7 +16619,7 @@
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16608,31 +16629,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
-        <v>1452</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>1456</v>
+      <c r="B2" s="22" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>1387</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
-        <v>1176</v>
+      <c r="B3" s="23" t="s">
+        <v>1175</v>
       </c>
       <c r="C3" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
-        <v>1453</v>
+      <c r="B4" s="23" t="s">
+        <v>1385</v>
       </c>
       <c r="C4" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="23" t="s">
         <v>308</v>
       </c>
       <c r="C5" s="16">
@@ -16640,16 +16661,16 @@
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
-        <v>1203</v>
+      <c r="B6" s="23" t="s">
+        <v>1194</v>
       </c>
       <c r="C6" s="16">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="39" t="s">
-        <v>1455</v>
+      <c r="B7" s="23" t="s">
+        <v>1386</v>
       </c>
       <c r="C7" s="16">
         <v>25</v>
@@ -16668,7 +16689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CE7B3A-DA47-42F2-A487-F5A4B521CDB0}">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -16682,26 +16703,26 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1452</v>
+        <v>1384</v>
       </c>
       <c r="C2" t="s">
-        <v>1457</v>
+        <v>1388</v>
       </c>
       <c r="D2" t="s">
-        <v>1458</v>
+        <v>1389</v>
       </c>
       <c r="E2" t="s">
-        <v>1459</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="40" t="s">
-        <v>1176</v>
+      <c r="B3" s="23" t="s">
+        <v>1175</v>
       </c>
       <c r="C3">
         <v>27</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="16">
         <v>5</v>
       </c>
       <c r="E3">
@@ -16709,13 +16730,13 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
-        <v>1453</v>
+      <c r="B4" s="23" t="s">
+        <v>1385</v>
       </c>
       <c r="C4">
         <v>36</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="16">
         <v>3</v>
       </c>
       <c r="E4">
@@ -16723,13 +16744,13 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="23" t="s">
         <v>308</v>
       </c>
       <c r="C5">
         <v>41</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="16">
         <v>1</v>
       </c>
       <c r="E5">
@@ -16737,13 +16758,13 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
-        <v>1203</v>
+      <c r="B6" s="23" t="s">
+        <v>1194</v>
       </c>
       <c r="C6">
         <v>66</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="16">
         <v>34</v>
       </c>
       <c r="E6">
@@ -16751,13 +16772,13 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
-        <v>1455</v>
+      <c r="B7" s="23" t="s">
+        <v>1386</v>
       </c>
       <c r="C7">
         <v>43</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="16">
         <v>25</v>
       </c>
       <c r="E7">
